--- a/dist/document/dest/2020/10/doctors/dqv.xlsx
+++ b/dist/document/dest/2020/10/doctors/dqv.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>30</v>
       </c>
-      <c r="C2" s="1">
-        <v>158700</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>269000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>47000</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>60</v>
       </c>
-      <c r="C5" s="1">
-        <v>330000</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -449,7 +437,7 @@
         <v>92</v>
       </c>
       <c r="C6" s="1">
-        <v>804700</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>
